--- a/Labs/Office/Excel/Labs/Lab01/Zenevich_T091_FORMATTING.xlsx
+++ b/Labs/Office/Excel/Labs/Lab01/Zenevich_T091_FORMATTING.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\Labs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Office\Excel\Labs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A92F8-CA56-40EC-AFAE-46259493C3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D783951E-CB0F-4733-BEE5-000F52D8A203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Прибыль/убытки</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Магазины</t>
   </si>
   <si>
-    <t>Январь</t>
-  </si>
-  <si>
     <t>Февраль</t>
   </si>
   <si>
@@ -64,27 +62,60 @@
   </si>
   <si>
     <t>Магазин 3</t>
+  </si>
+  <si>
+    <t>ФИО клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название </t>
+  </si>
+  <si>
+    <t>Ставка,  %</t>
+  </si>
+  <si>
+    <t>Срок, лет</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Кредит 2</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Кредит 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Январь </t>
+  </si>
+  <si>
+    <t>[&gt;1000]Прибыль;[&lt;=100] Убыток</t>
+  </si>
+  <si>
+    <t>[Желтый]0,00Руб.коп.;[Синий]-# ##0,000;[Синий] 0,000 Руб.;[Зеленый]@</t>
+  </si>
+  <si>
+    <t>[Синий][&lt;=400]0,00Руб.;[Зеленый][&gt;1000]0,0000 Тыс.Руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[&gt;1000]\П\р\и\б\ы\л\ь;[&lt;=100]\ \У\б\ы\т\о\к"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -110,35 +141,88 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,114 +498,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="b">
+        <f>AND((B2 = "Кредит"),(D2&lt;5))</f>
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Кредит 3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Кредит 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Кредит 1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(($B$2:$B$4 = "Кредит 3"),($D$2:$D$4=1800))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($B$2 = "Кредит 2",$D$2&gt;5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(($C$2:$C$4 = "Кредит 1"),($D$2:$D$4&lt;5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA562F45-5DD2-4669-9647-E2C017ACFA0B}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>49995</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3</f>
+        <v>49995</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="3">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
-        <v>23.42</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C4" s="3">
         <v>-5</v>
       </c>
-      <c r="E3" s="1">
-        <f>SUM(B3:D3)</f>
-        <v>33.42</v>
-      </c>
-      <c r="F3" s="1">
-        <f>E3</f>
-        <v>33.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">SUM(B4:D4)</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F5" si="1">E4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>-23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="0">SUM(B4:D4)</f>
-        <v>50</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F5" si="1">E4</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-11.4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="3">
+        <v>-4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -529,8 +732,6 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Labs/Office/Excel/Labs/Lab01/Zenevich_T091_FORMATTING.xlsx
+++ b/Labs/Office/Excel/Labs/Lab01/Zenevich_T091_FORMATTING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Office\Excel\Labs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D783951E-CB0F-4733-BEE5-000F52D8A203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85231420-DA7F-4818-9BE8-AE2534DCC10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[&gt;1000]\П\р\и\б\ы\л\ь;[&lt;=100]\ \У\б\ы\т\о\к"/>
+    <numFmt numFmtId="165" formatCode="[Yellow]0.00\Р\у\б/\к\о\п/;[Blue]\-#,##0.000;[Blue]\ 0.000,\Р\у\б/;[Green]@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -145,18 +146,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -164,11 +166,11 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF66CC"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -184,11 +186,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="7" tint="-0.499984740745262"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF66CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -500,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +588,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(($B$2:$B$4 = "Кредит 3"),($D$2:$D$4=1800))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($B$2 = "Кредит 2",$D$2&gt;5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(($C$2:$C$4 = "Кредит 1"),($D$2:$D$4&lt;5))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -605,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA562F45-5DD2-4669-9647-E2C017ACFA0B}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,14 +621,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -646,26 +648,26 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>-5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>50000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <f>SUM(B3:D3)</f>
         <v>49995</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <f>E3</f>
         <v>49995</v>
       </c>
@@ -677,20 +679,20 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>-5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E5" si="0">SUM(B4:D4)</f>
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F5" si="1">E4</f>
         <v>10</v>
       </c>
@@ -699,20 +701,20 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>-4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -733,5 +735,6 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>